--- a/2015-2016/PRE_PRO/pasantes/datos_pasantes/2015/yasmany_Lojan/2015/junio/SEGUIMIENTO Y CONTRO DE PRACTICAS Y PASANTIAS_8_12_junio .xlsx
+++ b/2015-2016/PRE_PRO/pasantes/datos_pasantes/2015/yasmany_Lojan/2015/junio/SEGUIMIENTO Y CONTRO DE PRACTICAS Y PASANTIAS_8_12_junio .xlsx
@@ -675,6 +675,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -684,30 +708,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -738,14 +738,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1588,7 +1588,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,174 +1609,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
       <c r="M1" s="8"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="10"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
       <c r="M3" s="11"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
       <c r="M4" s="11"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
       <c r="M5" s="10"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
       <c r="M6" s="11"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="41" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="41" t="s">
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -1879,39 +1879,44 @@
       <c r="L13" s="9"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
     </row>
     <row r="16" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
     <mergeCell ref="A15:L15"/>
     <mergeCell ref="A16:L16"/>
     <mergeCell ref="A6:L6"/>
@@ -1920,11 +1925,6 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23611111111111099" right="0.196527777777778" top="0.39374999999999999" bottom="0.51180555555555496" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1955,40 +1955,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="44" t="s">
@@ -2008,50 +2008,50 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
     </row>
     <row r="9" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
@@ -2141,26 +2141,26 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
@@ -2176,6 +2176,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A4:H4"/>
@@ -2185,11 +2190,6 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.47222222222222199" right="0.196527777777778" top="0.39374999999999999" bottom="0.118055555555556" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2222,46 +2222,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="44" t="s">
@@ -2306,18 +2306,18 @@
       <c r="J6" s="51"/>
     </row>
     <row r="7" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
@@ -2528,18 +2528,18 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A24" s="50" t="s">
@@ -2557,6 +2557,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:J5"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A24:J24"/>
@@ -2565,11 +2570,6 @@
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="7.8472222222222193E-2" right="0" top="0.39374999999999999" bottom="0.118055555555556" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2601,125 +2601,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="11"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="10"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="11"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="11"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
@@ -2850,17 +2850,17 @@
       <c r="I18" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
     </row>
     <row r="21" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="50" t="s">
@@ -2877,16 +2877,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23611111111111099" right="0.196527777777778" top="0.39374999999999999" bottom="0.51180555555555496" header="0.51180555555555496" footer="0.51180555555555496"/>
